--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\fhir-bfdr\input\mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\vr-common-library\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A358729-D2FD-4721-98CD-1FA05CE55BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B12C70-0167-4C2A-B902-0935B84298C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="163">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -539,9 +539,6 @@
     <t>This profile is based on the [US Core RelatedPerson]({{site.data.fhir.ver.hl7fhiruscore}}/StructureDefinition-us-core-relatedperson.html) profile.</t>
   </si>
   <si>
-    <t>This Observation profile represents the number of fetuses delivered live or dead at any time in the pregnancy regardless of gestational age, or if the fetuses were delivered at different dates in the pregnancy. ('Reabsorbed' fetuses, those which are not 'delivered' (expulsed or extracted from the mother) should not be counted.) Include all live births and fetal losses resulting from this pregnancy. This profile represents plurality as a characteristic of the pregnancy. For plurality as a characteristic of the patient, see the Patient.multipleBirth\[x]patient-multipleBirthTotal extension.</t>
-  </si>
-  <si>
     <t>This profile adds further constraints to the [US Core Patient]({{site.data.fhir.ver.hl7fhiruscore}}/StructureDefinition-us-core-patient.html) such as:
 * the [patient-birthPlace](http://hl7.org/fhir/StructureDefinition/patient-birthPlace) extension
 * the [patient-birthTime](http://hl7.org/fhir/StructureDefinition/patient-birthTime) extension
@@ -551,6 +548,10 @@
   </si>
   <si>
     <t>This includes infections present at the start of pregnancy or confirmed diagnosis during pregnancy with or without documentation of treatment. Documentation of treatment during this pregnancy is adequate if a definitive diagnosis is not present in the available record.</t>
+  </si>
+  <si>
+    <t>('Reabsorbed' fetuses, those which are not 'delivered' [expulsed or extracted from the mother] should not be counted.) Include all live births and fetal losses resulting from this pregnancy. 
+This profile represents plurality as a characteristic of the pregnancy. For plurality as a characteristic of the patient, see the [patient-multipleBirthTotal extension](http://hl7.org/fhir/StructureDefinition-patient-multipleBirthTotal.html).</t>
   </si>
 </sst>
 </file>
@@ -921,15 +922,15 @@
   <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="55.83984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.62890625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.05078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.41796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.41796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83984375" style="2"/>
@@ -1115,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>150</v>
@@ -2436,9 +2437,6 @@
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="C118" s="2" t="s">
         <v>150</v>
       </c>
@@ -2454,7 +2452,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>138</v>
@@ -2537,7 +2535,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>150</v>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\vr-common-library\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B12C70-0167-4C2A-B902-0935B84298C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB6B98-C932-4B89-814A-634A93776FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="38280" yWindow="-345" windowWidth="29040" windowHeight="15840" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="163">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -922,21 +922,21 @@
   <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.83984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.41796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="2"/>
+    <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -953,7 +953,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -972,7 +972,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -983,7 +983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -994,7 +994,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="403.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1184,29 +1184,41 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>154</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1220,7 +1232,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1242,7 +1254,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1298,7 +1310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1306,7 +1318,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1320,7 +1332,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1334,7 +1346,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1348,7 +1360,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1362,7 +1374,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1404,7 +1416,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1432,7 +1444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1446,7 +1458,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1460,7 +1472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1474,7 +1486,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1488,7 +1500,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -1502,7 +1514,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -1516,7 +1528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1530,7 +1542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -1544,7 +1556,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -1558,7 +1570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -1572,7 +1584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -1586,7 +1598,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -1600,7 +1612,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1628,7 +1640,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -1642,7 +1654,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -1656,7 +1668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1670,7 +1682,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -1698,7 +1710,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -1712,7 +1724,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -1726,7 +1738,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -1740,7 +1752,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -1754,7 +1766,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -1768,7 +1780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -1782,7 +1794,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -1810,7 +1822,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -1824,7 +1836,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -1838,7 +1850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -1852,7 +1864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -1866,7 +1878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -1880,7 +1892,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -1894,7 +1906,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -1908,7 +1920,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -1922,7 +1934,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -1964,7 +1976,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -1978,7 +1990,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -1992,7 +2004,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -2006,7 +2018,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -2020,7 +2032,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -2036,7 +2048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -2044,7 +2056,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -2052,7 +2064,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -2060,7 +2072,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -2068,7 +2080,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -2084,7 +2096,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -2098,7 +2110,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -2106,7 +2118,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -2114,7 +2126,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -2128,7 +2140,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -2136,7 +2148,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -2144,7 +2156,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -2161,7 +2173,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -2175,7 +2187,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -2189,7 +2201,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -2205,7 +2217,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -2213,7 +2225,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -2235,7 +2247,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -2249,7 +2261,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -2257,7 +2269,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -2271,7 +2283,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -2279,7 +2291,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -2293,7 +2305,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -2307,7 +2319,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -2321,7 +2333,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -2335,7 +2347,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -2363,7 +2375,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -2377,7 +2389,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -2391,7 +2403,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -2405,7 +2417,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -2419,7 +2431,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -2433,7 +2445,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -2447,7 +2459,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -2458,7 +2470,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -2472,7 +2484,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -2486,7 +2498,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -2500,7 +2512,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -2514,7 +2526,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -2522,7 +2534,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -2530,7 +2542,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -2547,7 +2559,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -2561,7 +2573,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -2575,7 +2587,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -2589,7 +2601,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -2603,7 +2615,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -2617,7 +2629,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -2625,7 +2637,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -2639,7 +2651,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -2653,7 +2665,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -2661,7 +2673,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -2675,7 +2687,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -2683,7 +2695,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\vr-common-library\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB6B98-C932-4B89-814A-634A93776FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243A8821-8118-4EA5-9B16-1754D50EBD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-345" windowWidth="29040" windowHeight="15840" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
@@ -539,19 +539,19 @@
     <t>This profile is based on the [US Core RelatedPerson]({{site.data.fhir.ver.hl7fhiruscore}}/StructureDefinition-us-core-relatedperson.html) profile.</t>
   </si>
   <si>
-    <t>This profile adds further constraints to the [US Core Patient]({{site.data.fhir.ver.hl7fhiruscore}}/StructureDefinition-us-core-patient.html) such as:
-* the [patient-birthPlace](http://hl7.org/fhir/StructureDefinition/patient-birthPlace) extension
-* the [patient-birthTime](http://hl7.org/fhir/StructureDefinition/patient-birthTime) extension
-* the [patient-multipleBirthTotal](http://hl7.org/fhir/StructureDefinition/patient-multipleBirthTotal) extension to record plurality
-* the base FHIR [data-absent-reason](http://hl7.org/fhir/StructureDefinition/data-absent-reason) extension to both name.given and name.family (a name may not yet have been chosen for the baby and US Core Patient requires that Patient.name.given or Patient.name.family or both SHALL be present)
-** use not-applicable if the name hasn't been chosen</t>
-  </si>
-  <si>
     <t>This includes infections present at the start of pregnancy or confirmed diagnosis during pregnancy with or without documentation of treatment. Documentation of treatment during this pregnancy is adequate if a definitive diagnosis is not present in the available record.</t>
   </si>
   <si>
     <t>('Reabsorbed' fetuses, those which are not 'delivered' [expulsed or extracted from the mother] should not be counted.) Include all live births and fetal losses resulting from this pregnancy. 
 This profile represents plurality as a characteristic of the pregnancy. For plurality as a characteristic of the patient, see the [patient-multipleBirthTotal extension](http://hl7.org/fhir/StructureDefinition-patient-multipleBirthTotal.html).</t>
+  </si>
+  <si>
+    <t>This profile adds further constraints to the [US Core Patient]({{site.data.fhir.ver.hl7fhiruscore}}/StructureDefinition-us-core-patient.html) such as:
+ * the [patient-birthPlace](http://hl7.org/fhir/StructureDefinition/patient-birthPlace) extension
+ * the [patient-birthTime](http://hl7.org/fhir/StructureDefinition/patient-birthTime) extension
+ * the [patient-multipleBirthTotal](http://hl7.org/fhir/StructureDefinition/patient-multipleBirthTotal) extension to record plurality
+ * the base FHIR [data-absent-reason](http://hl7.org/fhir/StructureDefinition/data-absent-reason) extension to both name.given and name.family (a name may not yet have been chosen for the baby and US Core Patient requires that Patient.name.given or Patient.name.family or both SHALL be present)
+    * use not-applicable if the name hasn't been chosen</t>
   </si>
 </sst>
 </file>
@@ -923,13 +923,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="154" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>150</v>
@@ -2464,7 +2464,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>138</v>
@@ -2542,12 +2542,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>150</v>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\vr-common-library\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243A8821-8118-4EA5-9B16-1754D50EBD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8AE1B5-4807-4C39-A997-2F851AC4E8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-345" windowWidth="29040" windowHeight="15840" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="163">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -922,8 +922,8 @@
   <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2677,12 +2677,6 @@
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E136" s="2" t="s">
         <v>138</v>
       </c>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\vr-common-library\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8AE1B5-4807-4C39-A997-2F851AC4E8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96A2FA4-A877-4EC8-BC78-38CB196FA6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="162">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -529,13 +529,6 @@
     <t>Birth certificates only require 5 and 10 minute timings. Other use cases may require/accept other timings.</t>
   </si>
   <si>
-    <t>When the Observation is about the father, set the subject to the child and the focus to the father (RelatedPerson).</t>
-  </si>
-  <si>
-    <t>When the Observation is about the father, set the subject to the child and the focus to the father (RelatedPerson).
-In cases where multiple races are recorded for a person an algorithm (NCHS defined) is used to select a single race. The goal is to provide race statistics that are comparable with those used historically to facilitate time series analysis. The goal is to maintain consistency between data collected after the definitional change (allowing collection of multiple races and ethnicities) and that collected prior to that time. This intent is to maintain the integrity of time series (data collected from a range of time periods) reporting.</t>
-  </si>
-  <si>
     <t>This profile is based on the [US Core RelatedPerson]({{site.data.fhir.ver.hl7fhiruscore}}/StructureDefinition-us-core-relatedperson.html) profile.</t>
   </si>
   <si>
@@ -552,6 +545,9 @@
  * the [patient-multipleBirthTotal](http://hl7.org/fhir/StructureDefinition/patient-multipleBirthTotal) extension to record plurality
  * the base FHIR [data-absent-reason](http://hl7.org/fhir/StructureDefinition/data-absent-reason) extension to both name.given and name.family (a name may not yet have been chosen for the baby and US Core Patient requires that Patient.name.given or Patient.name.family or both SHALL be present)
     * use not-applicable if the name hasn't been chosen</t>
+  </si>
+  <si>
+    <t>In cases where multiple races are recorded for a person an algorithm (NCHS defined) is used to select a single race. The goal is to provide race statistics that are comparable with those used historically to facilitate time series analysis. The goal is to maintain consistency between data collected after the definitional change (allowing collection of multiple races and ethnicities) and that collected prior to that time. This intent is to maintain the integrity of time series (data collected from a range of time periods) reporting.</t>
   </si>
 </sst>
 </file>
@@ -923,7 +919,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1090,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1111,12 +1107,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>150</v>
@@ -1201,7 +1197,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1402,7 +1398,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1416,7 +1412,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1430,7 +1426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1444,7 +1440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1458,7 +1454,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1472,7 +1468,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1486,7 +1482,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1500,7 +1496,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -1514,7 +1510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -1528,7 +1524,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1542,7 +1538,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -1556,7 +1552,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -2156,7 +2152,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -2459,12 +2455,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>138</v>
@@ -2498,12 +2494,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>150</v>
@@ -2512,12 +2508,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>150</v>
@@ -2547,7 +2540,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>150</v>
@@ -2689,12 +2682,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>138</v>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpassas/Documents/current_projects/NVSS/vr-common-library/input/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D200F-9F28-4606-A4E0-CDAD04888994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7E4782-5A30-A84D-A320-43AC0FFF795D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR" sheetId="1" r:id="rId1"/>
     <sheet name="VRDR" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BFDR!$A$1:$H$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BFDR!$A$1:$H$140</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="402">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>RelatedPerson-father-vr</t>
-  </si>
-  <si>
-    <t>RelatedPerson-mother-gestational-vr</t>
   </si>
   <si>
     <t>RelatedPerson-mother-vr</t>
@@ -645,9 +642,6 @@
   </si>
   <si>
     <t>RelatedPersonFatherVitalRecords</t>
-  </si>
-  <si>
-    <t>RelatedpersonMotherGestationalVitalRecords</t>
   </si>
   <si>
     <t>RelatedPersonMotherVitalRecords</t>
@@ -1814,61 +1808,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7"/>
-    <col min="2" max="2" width="42.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="7"/>
+    <col min="2" max="2" width="42.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="154" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1877,609 +1871,609 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>73</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
@@ -2488,198 +2482,198 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>23</v>
@@ -2688,2161 +2682,2144 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>84</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>85</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="E133" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H133" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A136" s="7">
+        <v>136</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="7">
+        <v>137</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="7">
+        <v>138</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A139" s="11">
+        <v>139</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="7">
+        <v>140</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="7">
-        <v>135</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="7">
-        <v>136</v>
-      </c>
-      <c r="B137" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="7">
-        <v>137</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="7">
-        <v>138</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A140" s="11">
-        <v>139</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="7">
-        <v>140</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H141" s="2" t="s">
+      <c r="H140" s="2" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H141" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H141">
-      <sortCondition ref="A1:A141"/>
+  <autoFilter ref="A1:H140" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H140">
+      <sortCondition ref="A1:A140"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H142">
-    <sortCondition ref="A2:A142"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H141">
+    <sortCondition ref="A2:A141"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4858,910 +4835,910 @@
       <selection activeCell="E38" sqref="E38:G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" customWidth="1"/>
-    <col min="5" max="5" width="110.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="5" max="5" width="110.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E11" s="10"/>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="350" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H38" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="320" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" t="s">
+        <v>333</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" t="s">
         <v>278</v>
       </c>
-      <c r="D40" t="s">
-        <v>335</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G40" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptran\Documents\vital_records_sandbox_ig-1\input\mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpassas/Documents/current_projects/NVSS/vital_records_sandbox_ig/input/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D200F-9F28-4606-A4E0-CDAD04888994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68805273-EE4B-A748-AF51-06C068214A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="37380" yWindow="2180" windowWidth="29040" windowHeight="15740" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR" sheetId="1" r:id="rId1"/>
     <sheet name="VRDR" sheetId="2" r:id="rId2"/>
+    <sheet name="VRCL" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BFDR!$A$1:$H$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VRCL!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="416">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -249,30 +251,15 @@
     <t>BFDR</t>
   </si>
   <si>
-    <t>Extension-date-day-vr</t>
-  </si>
-  <si>
-    <t>Extension-date-month-vr</t>
-  </si>
-  <si>
     <t>Extension-date-part-absent-reason-vr</t>
   </si>
   <si>
-    <t>Extension-date-time-vr</t>
-  </si>
-  <si>
-    <t>Extension-date-year-vr</t>
-  </si>
-  <si>
     <t>Extension-partial-date-time-vr</t>
   </si>
   <si>
     <t>Extension-partial-date-vr</t>
   </si>
   <si>
-    <t>Extension-patient-fetal-death-vr</t>
-  </si>
-  <si>
     <t>Extension-relatedperson-birthplace-vr</t>
   </si>
   <si>
@@ -285,67 +272,25 @@
     <t>Extension-within-city-limits-indicator-vr</t>
   </si>
   <si>
-    <t>Location-death-vr</t>
-  </si>
-  <si>
-    <t>Location-injury-vr</t>
-  </si>
-  <si>
     <t>Observation-autopsy-performed-indicator-vr</t>
   </si>
   <si>
-    <t>Observation-cause-of-death-part1-vr</t>
-  </si>
-  <si>
-    <t>Observation-contributing-cause-of-death-part2-vr</t>
-  </si>
-  <si>
-    <t>Observation-death-date-vr</t>
-  </si>
-  <si>
-    <t>Observation-decedent-pregnancy-vr</t>
-  </si>
-  <si>
-    <t>Observation-injury-incident-vr</t>
-  </si>
-  <si>
-    <t>Observation-manner-of-death-vr</t>
-  </si>
-  <si>
-    <t>Observation-parent-education-level-vr</t>
-  </si>
-  <si>
-    <t>Observation-plurality-vr</t>
-  </si>
-  <si>
-    <t>Observation-tobacco-use-contributed-to-death-vr</t>
-  </si>
-  <si>
     <t>Parameters-coding-status-values-vr</t>
   </si>
   <si>
     <t>Patient-child-vr</t>
   </si>
   <si>
-    <t>Patient-decedent-fetus-vr</t>
-  </si>
-  <si>
     <t>Patient-mother-vr</t>
   </si>
   <si>
     <t>Practitioner-vr</t>
   </si>
   <si>
-    <t>Procedure-death-certification-vr</t>
-  </si>
-  <si>
     <t>RelatedPerson-father-natural-vr</t>
   </si>
   <si>
     <t>RelatedPerson-father-vr</t>
-  </si>
-  <si>
-    <t>RelatedPerson-mother-gestational-vr</t>
   </si>
   <si>
     <t>RelatedPerson-mother-vr</t>
@@ -437,10 +382,6 @@
     <t>This includes infections present at the start of pregnancy or confirmed diagnosis during pregnancy with or without documentation of treatment. Documentation of treatment during this pregnancy is adequate if a definitive diagnosis is not present in the available record.</t>
   </si>
   <si>
-    <t>('Reabsorbed' fetuses, those which are not 'delivered' [expulsed or extracted from the mother] should not be counted.) Include all live births and fetal losses resulting from this pregnancy. 
-This profile represents plurality as a characteristic of the pregnancy. For plurality as a characteristic of the patient, see the [patient-multipleBirthTotal extension](http://hl7.org/fhir/StructureDefinition-patient-multipleBirthTotal.html).</t>
-  </si>
-  <si>
     <t>This profile adds further constraints to the [US Core Patient]({{site.data.fhir.ver.hl7fhiruscore}}/StructureDefinition-us-core-patient.html) such as:
  * the [patient-birthPlace](http://hl7.org/fhir/StructureDefinition/patient-birthPlace) extension
  * the [patient-birthTime](http://hl7.org/fhir/StructureDefinition/patient-birthTime) extension
@@ -638,69 +579,27 @@
     <t>PractitionerVitalRecords</t>
   </si>
   <si>
-    <t>ProcedureDeathCertificationVitalRecords</t>
-  </si>
-  <si>
     <t>RelatedpersonFatherNaturalVitalRecords</t>
   </si>
   <si>
     <t>RelatedPersonFatherVitalRecords</t>
   </si>
   <si>
-    <t>RelatedpersonMotherGestationalVitalRecords</t>
-  </si>
-  <si>
     <t>RelatedPersonMotherVitalRecords</t>
   </si>
   <si>
     <t>RelatedPersonParentVitalRecords</t>
   </si>
   <si>
-    <t>PatientDecedentFetusVitalRecords</t>
-  </si>
-  <si>
     <t>PatientChildVitalRecords</t>
   </si>
   <si>
     <t>ParametersCodingStatusValuesVitalRecords</t>
   </si>
   <si>
-    <t>ObservationTobaccoUseContributedToDeathVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationPluralityVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationParentEducationLevelVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationMannerOfDeathVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationInjuryIncidentVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationDecedentPregnancyVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationDeathDateVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationContributingCauseOfDeathPartVitalRecords</t>
-  </si>
-  <si>
-    <t>ObservationCauseOfDeathPartVitalRecords</t>
-  </si>
-  <si>
     <t>ObservationAutopsyPerformedIndicatorVitalRecords</t>
   </si>
   <si>
-    <t>LocationInjuryVitalRecords</t>
-  </si>
-  <si>
-    <t>LocationDeathVitalRecords</t>
-  </si>
-  <si>
     <t>ExtensionWithinCityLimitsIndicatorVitalRecords</t>
   </si>
   <si>
@@ -713,28 +612,13 @@
     <t>ExtensionRelatedpersonBirthplaceVitalRecords</t>
   </si>
   <si>
-    <t>ExtensionPatientFetalDeathVitalRecords</t>
-  </si>
-  <si>
     <t>ExtensionPartialDateVitalRecords</t>
   </si>
   <si>
     <t>ExtensionPartialDateTimeVitalRecords</t>
   </si>
   <si>
-    <t>ExtensionDateYearVitalRecords</t>
-  </si>
-  <si>
-    <t>ExtensionDateTimeVitalRecords</t>
-  </si>
-  <si>
     <t>ExtensionDatePartAbsentReasonVitalRecords</t>
-  </si>
-  <si>
-    <t>ExtensionDateMonthVitalRecords</t>
-  </si>
-  <si>
-    <t>ExtensionDateDayVitalRecords</t>
   </si>
   <si>
     <t>Profile Name Condensed</t>
@@ -1408,6 +1292,160 @@
   </si>
   <si>
     <t>Observation-coded-initiating-fetal-death-cause-or-condition</t>
+  </si>
+  <si>
+    <t>ObservationEducationLevelVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionPartialDateAbsentReasonVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionBypassEditFlagVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionCityCodeVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionDistrictCodeVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionPostDirectionalVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionPreDirectionalVitalRecords</t>
+  </si>
+  <si>
+    <t>ExtensionStreetDesignatorVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-partial-date-absent-reason-vr</t>
+  </si>
+  <si>
+    <t>Extension-bypass-edit-flag-vr</t>
+  </si>
+  <si>
+    <t>Extension-city-code-vr</t>
+  </si>
+  <si>
+    <t>Extension-district-code-vr</t>
+  </si>
+  <si>
+    <t>Extension-post-directional-vr</t>
+  </si>
+  <si>
+    <t>Extension-pre-directional-vr</t>
+  </si>
+  <si>
+    <t>Extension-street-designator-vr</t>
+  </si>
+  <si>
+    <t>Observation-education-level-vr</t>
+  </si>
+  <si>
+    <t>PatientDecedentFetus</t>
+  </si>
+  <si>
+    <t>Patient-decedent-fetus</t>
+  </si>
+  <si>
+    <t>ExtensionDateDayVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-date-day-vr</t>
+  </si>
+  <si>
+    <t>ExtensionDateMonthVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-date-month-vr</t>
+  </si>
+  <si>
+    <t>ExtensionDateTimeVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-date-time-vr</t>
+  </si>
+  <si>
+    <t>ExtensionDateYearVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-date-year-vr</t>
+  </si>
+  <si>
+    <t>ExtensionPatientFetalDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-patient-fetal-death-vr</t>
+  </si>
+  <si>
+    <t>LocationDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>Location-death-vr</t>
+  </si>
+  <si>
+    <t>LocationInjuryVitalRecords</t>
+  </si>
+  <si>
+    <t>Location-injury-vr</t>
+  </si>
+  <si>
+    <t>ObservationCauseOfDeathPartVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-cause-of-death-part1-vr</t>
+  </si>
+  <si>
+    <t>ObservationContributingCauseOfDeathPartVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-contributing-cause-of-death-part2-vr</t>
+  </si>
+  <si>
+    <t>ObservationDeathDateVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-death-date-vr</t>
+  </si>
+  <si>
+    <t>ObservationDecedentPregnancyVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-decedent-pregnancy-vr</t>
+  </si>
+  <si>
+    <t>ObservationInjuryIncidentVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-injury-incident-vr</t>
+  </si>
+  <si>
+    <t>ObservationMannerOfDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-manner-of-death-vr</t>
+  </si>
+  <si>
+    <t>ObservationPluralityVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-plurality-vr</t>
+  </si>
+  <si>
+    <t>('Reabsorbed' fetuses, those which are not 'delivered' [expulsed or extracted from the mother] should not be counted.) Include all live births and fetal losses resulting from this pregnancy. 
+This profile represents plurality as a characteristic of the pregnancy. For plurality as a characteristic of the patient, see the [patient-multipleBirthTotal extension](http://hl7.org/fhir/StructureDefinition-patient-multipleBirthTotal.html).</t>
+  </si>
+  <si>
+    <t>ObservationTobaccoUseContributedToDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-tobacco-use-contributed-to-death-vr</t>
+  </si>
+  <si>
+    <t>ProcedureDeathCertificationVitalRecords</t>
+  </si>
+  <si>
+    <t>Procedure-death-certification-vr</t>
   </si>
 </sst>
 </file>
@@ -1816,59 +1854,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7"/>
-    <col min="2" max="2" width="42.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="7"/>
+    <col min="2" max="2" width="42.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="154" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1877,609 +1915,609 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>222</v>
+        <v>383</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>384</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>221</v>
+        <v>385</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>386</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>219</v>
+        <v>387</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>388</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>218</v>
+        <v>389</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>390</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
@@ -2488,198 +2526,198 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>215</v>
+        <v>391</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>23</v>
@@ -2688,2159 +2726,2137 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>210</v>
+        <v>393</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>207</v>
+        <v>397</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>84</v>
+        <v>398</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>206</v>
+        <v>399</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>205</v>
+        <v>401</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>402</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>204</v>
+        <v>403</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>203</v>
+        <v>405</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>202</v>
+        <v>407</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>408</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>201</v>
+        <v>365</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>200</v>
+        <v>409</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>410</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>125</v>
+        <v>411</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>199</v>
+        <v>412</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>92</v>
+        <v>413</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>196</v>
+        <v>381</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>382</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>190</v>
+        <v>414</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="7">
-        <v>132</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H141" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H141">
-      <sortCondition ref="A1:A141"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H142">
     <sortCondition ref="A2:A142"/>
   </sortState>
@@ -4854,917 +4870,1501 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7A17BA-FE82-4288-B686-95D9BC7A8AC0}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="B35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:G38"/>
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" customWidth="1"/>
-    <col min="5" max="5" width="110.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="5" max="5" width="110.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
         <v>241</v>
       </c>
-      <c r="D2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>286</v>
-      </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>287</v>
-      </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D10" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>288</v>
-      </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="E11" s="10"/>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="350" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="D23" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="D26" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="D27" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="D29" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="D30" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="D31" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H31" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="D32" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="D33" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="D34" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="D35" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="G35" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" t="s">
         <v>235</v>
       </c>
-      <c r="C36" t="s">
-        <v>274</v>
-      </c>
       <c r="D36" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="D38" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="G38" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H38" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="D39" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="320" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="G40" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H40" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="H42" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9C431E-1590-45F1-9F5F-911CCFABB960}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="7"/>
+    <col min="2" max="2" width="42.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="154" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H26" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
+      <sortCondition ref="A1:A26"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/input/mapping/BFDR_Profile_Intros.xlsx
+++ b/input/mapping/BFDR_Profile_Intros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpassas/Documents/current_projects/NVSS/vital_records_sandbox_ig/input/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382F11F5-05DA-8547-9313-695100150123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE1DDC-1B05-8D44-9F49-FF264C8BDF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37380" yWindow="2180" windowWidth="29040" windowHeight="15740" activeTab="2" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
+    <workbookView xWindow="38720" yWindow="4920" windowWidth="29040" windowHeight="15740" activeTab="2" xr2:uid="{A8075592-22BD-4EA0-88A4-9AD2EBB5635C}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="416">
   <si>
     <t>Bundle-document-bfdr</t>
   </si>
@@ -1346,6 +1346,106 @@
   </si>
   <si>
     <t>Patient-decedent-fetus</t>
+  </si>
+  <si>
+    <t>ExtensionDateDayVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-date-day-vr</t>
+  </si>
+  <si>
+    <t>ExtensionDateMonthVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-date-month-vr</t>
+  </si>
+  <si>
+    <t>ExtensionDateTimeVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-date-time-vr</t>
+  </si>
+  <si>
+    <t>ExtensionDateYearVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-date-year-vr</t>
+  </si>
+  <si>
+    <t>ExtensionPatientFetalDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>Extension-patient-fetal-death-vr</t>
+  </si>
+  <si>
+    <t>LocationDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>Location-death-vr</t>
+  </si>
+  <si>
+    <t>LocationInjuryVitalRecords</t>
+  </si>
+  <si>
+    <t>Location-injury-vr</t>
+  </si>
+  <si>
+    <t>ObservationCauseOfDeathPartVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-cause-of-death-part1-vr</t>
+  </si>
+  <si>
+    <t>ObservationContributingCauseOfDeathPartVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-contributing-cause-of-death-part2-vr</t>
+  </si>
+  <si>
+    <t>ObservationDeathDateVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-death-date-vr</t>
+  </si>
+  <si>
+    <t>ObservationDecedentPregnancyVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-decedent-pregnancy-vr</t>
+  </si>
+  <si>
+    <t>ObservationInjuryIncidentVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-injury-incident-vr</t>
+  </si>
+  <si>
+    <t>ObservationMannerOfDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-manner-of-death-vr</t>
+  </si>
+  <si>
+    <t>ObservationPluralityVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-plurality-vr</t>
+  </si>
+  <si>
+    <t>('Reabsorbed' fetuses, those which are not 'delivered' [expulsed or extracted from the mother] should not be counted.) Include all live births and fetal losses resulting from this pregnancy. 
+This profile represents plurality as a characteristic of the pregnancy. For plurality as a characteristic of the patient, see the [patient-multipleBirthTotal extension](http://hl7.org/fhir/StructureDefinition-patient-multipleBirthTotal.html).</t>
+  </si>
+  <si>
+    <t>ObservationTobaccoUseContributedToDeathVitalRecords</t>
+  </si>
+  <si>
+    <t>Observation-tobacco-use-contributed-to-death-vr</t>
+  </si>
+  <si>
+    <t>ProcedureDeathCertificationVitalRecords</t>
+  </si>
+  <si>
+    <t>Procedure-death-certification-vr</t>
   </si>
 </sst>
 </file>
@@ -1754,9 +1854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2278,6 +2378,23 @@
         <v>68</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
@@ -2301,6 +2418,40 @@
         <v>68</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
@@ -2324,6 +2475,40 @@
         <v>68</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
@@ -2433,6 +2618,97 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
@@ -2450,10 +2726,102 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="H43" s="5"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
@@ -2527,6 +2895,29 @@
         <v>68</v>
       </c>
     </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
@@ -2551,8 +2942,21 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
@@ -2578,8 +2982,21 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
@@ -2650,6 +3067,40 @@
         <v>68</v>
       </c>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="59" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
@@ -3051,6 +3502,23 @@
         <v>68</v>
       </c>
     </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
@@ -3097,6 +3565,23 @@
         <v>68</v>
       </c>
     </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
@@ -3511,6 +3996,29 @@
         <v>68</v>
       </c>
     </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>100</v>
@@ -3557,6 +4065,26 @@
         <v>68</v>
       </c>
     </row>
+    <row r="103" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>103</v>
@@ -3649,6 +4177,23 @@
         <v>68</v>
       </c>
     </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>109</v>
@@ -3663,6 +4208,49 @@
         <v>85</v>
       </c>
     </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="7">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
+        <v>111</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>112</v>
@@ -3686,6 +4274,52 @@
         <v>85</v>
       </c>
     </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
+        <v>113</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="7">
+        <v>114</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>115</v>
@@ -3847,6 +4481,23 @@
         <v>68</v>
       </c>
     </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="7">
+        <v>122</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>123</v>
@@ -4008,6 +4659,106 @@
         <v>68</v>
       </c>
     </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="7">
+        <v>130</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="7">
+        <v>131</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="7">
+        <v>133</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="7">
+        <v>134</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A135" s="7">
+        <v>135</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="137" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>136</v>
@@ -4068,10 +4819,28 @@
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="11"/>
-      <c r="E140" s="12"/>
-      <c r="G140" s="2"/>
+    <row r="140" spans="1:8" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A140" s="11">
+        <v>139</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
@@ -4088,11 +4857,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H141" xr:uid="{82F4FF00-73BE-417A-ACC1-ED7CA7395274}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H141">
-      <sortCondition ref="A1:A141"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H142">
     <sortCondition ref="A2:A142"/>
   </sortState>
@@ -5025,9 +5789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9C431E-1590-45F1-9F5F-911CCFABB960}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5344,6 +6108,12 @@
       <c r="D16" s="2" t="s">
         <v>380</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>85</v>
       </c>
